--- a/Database/data java2/Staff.xlsx
+++ b/Database/data java2/Staff.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\data java2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vuduc\Desktop\Project2\Database\data java2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C09D133A-4949-4866-89BF-2D99D461022D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEBFF3B7-FAB8-40F5-A265-EC78C616029F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{993C42EE-F342-44CD-A66F-CACB17595677}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="297" xr2:uid="{993C42EE-F342-44CD-A66F-CACB17595677}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,22 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="74">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Fullname</t>
-  </si>
-  <si>
-    <t>DOB</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Phonenumber</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="87">
   <si>
     <t>address</t>
   </si>
@@ -71,87 +59,42 @@
     <t>Nguyễn Văn Hùng</t>
   </si>
   <si>
-    <t>15.03.1970</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
     <t>Trần Mạnh Điệp</t>
   </si>
   <si>
-    <t>02.06.1980</t>
-  </si>
-  <si>
     <t>Nguyễn Văn An</t>
   </si>
   <si>
-    <t>03.05.1975</t>
-  </si>
-  <si>
     <t>Trần Thị Cúc</t>
   </si>
   <si>
-    <t>16.12.1985</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
     <t>Phạm Ánh Dương</t>
   </si>
   <si>
-    <t>09.05.1982</t>
-  </si>
-  <si>
     <t>Hoàng Văn Hiệp</t>
   </si>
   <si>
-    <t>05.12.1978</t>
-  </si>
-  <si>
     <t>Nguyễn Minh Hiếu</t>
   </si>
   <si>
-    <t>20.10.1982</t>
-  </si>
-  <si>
     <t>Lê Văn Mạnh</t>
   </si>
   <si>
-    <t>12.08.1978</t>
-  </si>
-  <si>
-    <t>10.10.1985</t>
-  </si>
-  <si>
     <t>Lương Hồng Mai</t>
   </si>
   <si>
     <t>Hà Mạnh Nam</t>
   </si>
   <si>
-    <t>14.10.1980</t>
-  </si>
-  <si>
     <t>Trần Phương Thảo</t>
   </si>
   <si>
-    <t>10.03.1982</t>
-  </si>
-  <si>
     <t>Phạm Minh Thu</t>
   </si>
   <si>
-    <t>06.12.1988</t>
-  </si>
-  <si>
     <t>Phạm Văn Thành</t>
   </si>
   <si>
-    <t>10.05.1987</t>
-  </si>
-  <si>
     <t>Hà Nội</t>
   </si>
   <si>
@@ -255,6 +198,105 @@
   </si>
   <si>
     <t>thanhpv12</t>
+  </si>
+  <si>
+    <t>fullname</t>
+  </si>
+  <si>
+    <t>birth</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>0988112233</t>
+  </si>
+  <si>
+    <t>0123458613</t>
+  </si>
+  <si>
+    <t>0991314599</t>
+  </si>
+  <si>
+    <t>0915831146</t>
+  </si>
+  <si>
+    <t>0921346541</t>
+  </si>
+  <si>
+    <t>0198793231</t>
+  </si>
+  <si>
+    <t>0125308885</t>
+  </si>
+  <si>
+    <t>0924813146</t>
+  </si>
+  <si>
+    <t>0989772316</t>
+  </si>
+  <si>
+    <t>0924124114</t>
+  </si>
+  <si>
+    <t>0948134877</t>
+  </si>
+  <si>
+    <t>0911514613</t>
+  </si>
+  <si>
+    <t>0915866641</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>1970-03-15</t>
+  </si>
+  <si>
+    <t>1975-03-05</t>
+  </si>
+  <si>
+    <t>1985-12-16</t>
+  </si>
+  <si>
+    <t>1982-09-05</t>
+  </si>
+  <si>
+    <t>1980-02-06</t>
+  </si>
+  <si>
+    <t>1978-05-12</t>
+  </si>
+  <si>
+    <t>1982-10-20</t>
+  </si>
+  <si>
+    <t>1978-12-08</t>
+  </si>
+  <si>
+    <t>1985-10-10</t>
+  </si>
+  <si>
+    <t>1980-10-14</t>
+  </si>
+  <si>
+    <t>1982-10-03</t>
+  </si>
+  <si>
+    <t>1988-06-12</t>
+  </si>
+  <si>
+    <t>1987-10-05</t>
   </si>
 </sst>
 </file>
@@ -299,13 +341,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Siêu kết nối" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -321,7 +372,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Chủ đề Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -617,512 +668,566 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27E99F5F-EB5B-4257-A1A6-760A2F3044FB}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.44140625" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1"/>
-    <col min="7" max="7" width="22.109375" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" customWidth="1"/>
-    <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="13.44140625" customWidth="1"/>
-    <col min="11" max="11" width="12.77734375" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="218.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="C2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2" t="str">
+        <f>_xlfn.CONCAT("INSERT INTO staff (fullname, birth, gender, phone,address,email, password, pic,salary, permission_id) VALUE","('",B2,"','",C2,"','",D2,"','",E2,"','",F2,"','",G2,"','",H2,"','",I2,"','",J2,"','",K2,"');")</f>
+        <v>INSERT INTO staff (fullname, birth, gender, phone,address,email, password, pic,salary, permission_id) VALUE('Nguyễn Văn Hùng','1970-03-15','male','0988112233','Hà Nội','hung.nv.00@gmail.com','hungnv00','1','100000000','1');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>30000000</v>
+      </c>
+      <c r="K3" s="1">
+        <v>2</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" ref="L3:L14" si="0">_xlfn.CONCAT("INSERT INTO staff (fullname, birth, gender, phone,address,email, password, pic,salary, permission_id) VALUE","('",B3,"','",C3,"','",D3,"','",E3,"','",F3,"','",G3,"','",H3,"','",I3,"','",J3,"','",K3,"');")</f>
+        <v>INSERT INTO staff (fullname, birth, gender, phone,address,email, password, pic,salary, permission_id) VALUE('Nguyễn Văn An','1975-03-05','male','0123458613','Nam Định','an.nv.01@gmail.com','annv01','1','30000000','2');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>28000000</v>
+      </c>
+      <c r="K4" s="1">
+        <v>2</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO staff (fullname, birth, gender, phone,address,email, password, pic,salary, permission_id) VALUE('Trần Thị Cúc','1985-12-16','female','0991314599','Hải Dương','cuc.tt.02@gmail.com','cuctt02','1','28000000','2');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>32000000</v>
+      </c>
+      <c r="K5" s="1">
+        <v>2</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO staff (fullname, birth, gender, phone,address,email, password, pic,salary, permission_id) VALUE('Phạm Ánh Dương','1982-09-05','female','0915831146','Ninh Bình','duong.pa.03@gmail.com','duongpa03','1','32000000','2');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="C6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>29000000</v>
+      </c>
+      <c r="K6" s="1">
+        <v>2</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO staff (fullname, birth, gender, phone,address,email, password, pic,salary, permission_id) VALUE('Trần Mạnh Điệp','1980-02-06','male','0921346541','Hà Nội','diep.tm.04@gmail.com','dieptm04','1','29000000','2');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>30000000</v>
+      </c>
+      <c r="K7" s="1">
+        <v>2</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO staff (fullname, birth, gender, phone,address,email, password, pic,salary, permission_id) VALUE('Hoàng Văn Hiệp','1978-05-12','male','0198793231','Hà Nam','hiep.hv.05@gmail.com','hiephv05','1','30000000','2');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
+        <v>25000000</v>
+      </c>
+      <c r="K8" s="1">
+        <v>2</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO staff (fullname, birth, gender, phone,address,email, password, pic,salary, permission_id) VALUE('Nguyễn Minh Hiếu','1982-10-20','male','0125308885','Vĩnh Phúc','hieu.nm.06@gmail.com','hieunm06','1','25000000','2');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>28000000</v>
+      </c>
+      <c r="K9" s="1">
+        <v>2</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO staff (fullname, birth, gender, phone,address,email, password, pic,salary, permission_id) VALUE('Lê Văn Mạnh','1978-12-08','male','0924813146','Hải Dương','manh.lv.07@gmail.com','manhlv07','1','28000000','2');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>33000000</v>
+      </c>
+      <c r="K10" s="1">
+        <v>2</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO staff (fullname, birth, gender, phone,address,email, password, pic,salary, permission_id) VALUE('Lương Hồng Mai','1985-10-10','female','0989772316','Quảng Ninh','mai.lh.08@gmail.com','mailh08','1','33000000','2');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>22000000</v>
+      </c>
+      <c r="K11" s="1">
+        <v>3</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO staff (fullname, birth, gender, phone,address,email, password, pic,salary, permission_id) VALUE('Hà Mạnh Nam','1980-10-14','male','0924124114','Phú Thọ','nam.hm.09@gmail.com','namhm09','1','22000000','3');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>20000000</v>
+      </c>
+      <c r="K12" s="1">
+        <v>3</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO staff (fullname, birth, gender, phone,address,email, password, pic,salary, permission_id) VALUE('Trần Phương Thảo','1982-10-03','female','0948134877','Nam Định','thao.tp.10@gmail.com','thaotp10','1','20000000','3');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>25000000</v>
+      </c>
+      <c r="K13" s="1">
+        <v>3</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO staff (fullname, birth, gender, phone,address,email, password, pic,salary, permission_id) VALUE('Phạm Minh Thu','1988-06-12','female','0911514613','Hà Nội','thu.pm.11@gmail.com','thupm11','1','25000000','3');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="E2">
-        <v>988112233</v>
-      </c>
-      <c r="F2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>100000000</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3">
-        <v>123458613</v>
-      </c>
-      <c r="F3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>30000000</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4">
-        <v>991314599</v>
-      </c>
-      <c r="F4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="C14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>28000000</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1">
+        <v>18000000</v>
+      </c>
+      <c r="K14" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>915831146</v>
-      </c>
-      <c r="F5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>32000000</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6">
-        <v>921346541</v>
-      </c>
-      <c r="F6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H6" t="s">
-        <v>57</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>29000000</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7">
-        <v>198793231</v>
-      </c>
-      <c r="F7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H7" t="s">
-        <v>59</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>30000000</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8">
-        <v>125308885</v>
-      </c>
-      <c r="F8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H8" t="s">
-        <v>61</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>25000000</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9">
-        <v>924813146</v>
-      </c>
-      <c r="F9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H9" t="s">
-        <v>63</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>28000000</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>989772316</v>
-      </c>
-      <c r="F10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H10" t="s">
-        <v>65</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>33000000</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11">
-        <v>924124114</v>
-      </c>
-      <c r="F11" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H11" t="s">
-        <v>67</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>22000000</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12">
-        <v>948134877</v>
-      </c>
-      <c r="F12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H12" t="s">
-        <v>69</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>20000000</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13">
-        <v>911514613</v>
-      </c>
-      <c r="F13" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H13" t="s">
-        <v>71</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>25000000</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14">
-        <v>915866641</v>
-      </c>
-      <c r="F14" t="s">
-        <v>47</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H14" t="s">
-        <v>73</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14">
-        <v>18000000</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
+      <c r="L14" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO staff (fullname, birth, gender, phone,address,email, password, pic,salary, permission_id) VALUE('Phạm Văn Thành','1987-10-05','male','0915866641','Thanh Hóa','thanh.pv.12@gmail.com','thanhpv12','1','18000000','3');</v>
       </c>
     </row>
   </sheetData>
@@ -1143,5 +1248,6 @@
     <hyperlink ref="G14" r:id="rId14" xr:uid="{EE14DAB3-F76B-4BC8-B7EB-D06547C0F5E7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>